--- a/CLIENTS.xlsx
+++ b/CLIENTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pux/Desktop/PROJECT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7A640-AA84-7241-9189-2D9CFE9EDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB9180-517A-A74B-855E-E5FC2F3572A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{310B5BBD-612C-0043-A96A-B6EDB35812AF}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{310B5BBD-612C-0043-A96A-B6EDB35812AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="388">
   <si>
     <t>Client_id (PK)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>SSN</t>
   </si>
   <si>
-    <t>123-456789</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -87,13 +84,1201 @@
   </si>
   <si>
     <t xml:space="preserve">Zip </t>
+  </si>
+  <si>
+    <t>123-982345</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DIVORCED</t>
+  </si>
+  <si>
+    <t>WIDOW</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>345-765123</t>
+  </si>
+  <si>
+    <t>645-678345</t>
+  </si>
+  <si>
+    <t>345-987234</t>
+  </si>
+  <si>
+    <t>234-456688</t>
+  </si>
+  <si>
+    <t>123-756345</t>
+  </si>
+  <si>
+    <t>987-345567</t>
+  </si>
+  <si>
+    <t>345-675677</t>
+  </si>
+  <si>
+    <t>567-456567</t>
+  </si>
+  <si>
+    <t>098-345345</t>
+  </si>
+  <si>
+    <t>567-765567</t>
+  </si>
+  <si>
+    <t>876-767765</t>
+  </si>
+  <si>
+    <t>567-098567</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>654 Globe st</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Jannet</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>78 S. Blvd</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>9850 Oak dr</t>
+  </si>
+  <si>
+    <t>Steilacoom</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Abrey</t>
+  </si>
+  <si>
+    <t>Hokkayo</t>
+  </si>
+  <si>
+    <t>1847 Arctic Ct</t>
+  </si>
+  <si>
+    <t>Laredo</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Kovalski</t>
+  </si>
+  <si>
+    <t>265 Tryon st</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>765-345456</t>
+  </si>
+  <si>
+    <t>567-876456</t>
+  </si>
+  <si>
+    <t>765-567765</t>
+  </si>
+  <si>
+    <t>567-345234</t>
+  </si>
+  <si>
+    <t>756-678234</t>
+  </si>
+  <si>
+    <t>456-987345</t>
+  </si>
+  <si>
+    <t>987-436345</t>
+  </si>
+  <si>
+    <t>567-987890</t>
+  </si>
+  <si>
+    <t>234-234543</t>
+  </si>
+  <si>
+    <t>346-565879</t>
+  </si>
+  <si>
+    <t>568-987567</t>
+  </si>
+  <si>
+    <t>567-876900</t>
+  </si>
+  <si>
+    <t>345-246546</t>
+  </si>
+  <si>
+    <t>689-876534</t>
+  </si>
+  <si>
+    <t>654-756776</t>
+  </si>
+  <si>
+    <t>876-678886</t>
+  </si>
+  <si>
+    <t>678-645345</t>
+  </si>
+  <si>
+    <t>345-534234</t>
+  </si>
+  <si>
+    <t>432-466675</t>
+  </si>
+  <si>
+    <t>867-987789</t>
+  </si>
+  <si>
+    <t>789-678765</t>
+  </si>
+  <si>
+    <t>456-765888</t>
+  </si>
+  <si>
+    <t>679-985563</t>
+  </si>
+  <si>
+    <t>345-657886</t>
+  </si>
+  <si>
+    <t>457-876883</t>
+  </si>
+  <si>
+    <t>345-546768</t>
+  </si>
+  <si>
+    <t>964-355478</t>
+  </si>
+  <si>
+    <t>987-345522</t>
+  </si>
+  <si>
+    <t>255-877686</t>
+  </si>
+  <si>
+    <t>346-345357</t>
+  </si>
+  <si>
+    <t>885-568885</t>
+  </si>
+  <si>
+    <t>499-679965</t>
+  </si>
+  <si>
+    <t>568-978654</t>
+  </si>
+  <si>
+    <t>456-534567</t>
+  </si>
+  <si>
+    <t>987-457890</t>
+  </si>
+  <si>
+    <t>789-856632</t>
+  </si>
+  <si>
+    <t>345-674342</t>
+  </si>
+  <si>
+    <t>346-879642</t>
+  </si>
+  <si>
+    <t>245-765322</t>
+  </si>
+  <si>
+    <t>324-768479</t>
+  </si>
+  <si>
+    <t>975-456223</t>
+  </si>
+  <si>
+    <t>657-478965</t>
+  </si>
+  <si>
+    <t>478-457899</t>
+  </si>
+  <si>
+    <t>874-345221</t>
+  </si>
+  <si>
+    <t>235-685477</t>
+  </si>
+  <si>
+    <t>796-795332</t>
+  </si>
+  <si>
+    <t>235-778996</t>
+  </si>
+  <si>
+    <t>568-789654</t>
+  </si>
+  <si>
+    <t>234-657589</t>
+  </si>
+  <si>
+    <t>679-464561</t>
+  </si>
+  <si>
+    <t>457-878226</t>
+  </si>
+  <si>
+    <t>768-234668</t>
+  </si>
+  <si>
+    <t>743-345789</t>
+  </si>
+  <si>
+    <t>459-456222</t>
+  </si>
+  <si>
+    <t>843-234789</t>
+  </si>
+  <si>
+    <t>347-456832</t>
+  </si>
+  <si>
+    <t>976-345789</t>
+  </si>
+  <si>
+    <t>456-563234</t>
+  </si>
+  <si>
+    <t>345-568221</t>
+  </si>
+  <si>
+    <t>134-768995</t>
+  </si>
+  <si>
+    <t>Gabby</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Robbert</t>
+  </si>
+  <si>
+    <t>Natalii</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Mickel</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
+    <t>Kimmy</t>
+  </si>
+  <si>
+    <t>Darel</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Kiki</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Dilan</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Druy</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>Hiromi</t>
+  </si>
+  <si>
+    <t>Jho</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Archy</t>
+  </si>
+  <si>
+    <t>Oggy</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>Kamila</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Ratchel</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Chivas</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>Climenta</t>
+  </si>
+  <si>
+    <t>Zhanna</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Yulian</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Romul</t>
+  </si>
+  <si>
+    <t>Agness</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Asterix</t>
+  </si>
+  <si>
+    <t>McKate</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>McRib</t>
+  </si>
+  <si>
+    <t>Downy</t>
+  </si>
+  <si>
+    <t>Portman</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Shwab</t>
+  </si>
+  <si>
+    <t>Felert</t>
+  </si>
+  <si>
+    <t>Kors</t>
+  </si>
+  <si>
+    <t>Etony</t>
+  </si>
+  <si>
+    <t>Kirst</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Chopen</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Folk</t>
+  </si>
+  <si>
+    <t>Morte</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Presley</t>
+  </si>
+  <si>
+    <t>Branwick</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Matsuka</t>
+  </si>
+  <si>
+    <t>DeMesa</t>
+  </si>
+  <si>
+    <t>Valonez</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Minok</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Shultz</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Ofset</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Bluff</t>
+  </si>
+  <si>
+    <t>Kolt</t>
+  </si>
+  <si>
+    <t>Wibe</t>
+  </si>
+  <si>
+    <t>Furry</t>
+  </si>
+  <si>
+    <t>Stndport</t>
+  </si>
+  <si>
+    <t>Klim</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Regal</t>
+  </si>
+  <si>
+    <t>Odolon</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Zaruss</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Beamington</t>
+  </si>
+  <si>
+    <t>Ceaser</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Narow</t>
+  </si>
+  <si>
+    <t>Talus</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>McStar</t>
+  </si>
+  <si>
+    <t>987 S White Station Rd</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>2360 US-31W</t>
+  </si>
+  <si>
+    <t>White House</t>
+  </si>
+  <si>
+    <t>9876 Rea Rd</t>
+  </si>
+  <si>
+    <t>9876 Rod Rd</t>
+  </si>
+  <si>
+    <t>Johns Creek</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>9876 TENOR DR</t>
+  </si>
+  <si>
+    <t>INTERLOCHEN</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>5425 Washington Pike</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>56 Beverly Park Dr</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>34 BEVERLY PARK CIRCLE</t>
+  </si>
+  <si>
+    <t>87 Queens Rd</t>
+  </si>
+  <si>
+    <t>563 7th St</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>25-53 76th St</t>
+  </si>
+  <si>
+    <t>Flushing</t>
+  </si>
+  <si>
+    <t>53 76th St</t>
+  </si>
+  <si>
+    <t>78-53 76th St</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>67 Ocean Vista</t>
+  </si>
+  <si>
+    <t>Newport Beach</t>
+  </si>
+  <si>
+    <t>627 Ocean Blvd</t>
+  </si>
+  <si>
+    <t>Isle Of Palms</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <r>
+      <t>6804 N </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ocean Blvd</t>
+    </r>
+  </si>
+  <si>
+    <t>Myrtle Beach</t>
+  </si>
+  <si>
+    <t>140 Ocean Park Blvd</t>
+  </si>
+  <si>
+    <t>Santa Monica</t>
+  </si>
+  <si>
+    <t>87 Lee Woods Dr</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>87 Chafford Woods DrRichmond Heights</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>87 Wood Acres Dr</t>
+  </si>
+  <si>
+    <t>Williamsville</t>
+  </si>
+  <si>
+    <r>
+      <t>2901 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Ave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>12 Oak Rd</t>
+  </si>
+  <si>
+    <t>45 palm ave</t>
+  </si>
+  <si>
+    <t>678 Palm dr</t>
+  </si>
+  <si>
+    <t>789 wave ave</t>
+  </si>
+  <si>
+    <t>890 Bee st</t>
+  </si>
+  <si>
+    <t>789 Bridge Ln</t>
+  </si>
+  <si>
+    <t>Wolf Creek</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>87 Blake St</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>234 W Loop Dr</t>
+  </si>
+  <si>
+    <t>West Point</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Salisbury</t>
+  </si>
+  <si>
+    <t>7636 N 13th St</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Los Gatos</t>
+  </si>
+  <si>
+    <t>670 Niagara Falls Blvd</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Fort Mill</t>
+  </si>
+  <si>
+    <t>Medford</t>
+  </si>
+  <si>
+    <t>78 John Jay Dr</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>890 Smith McGee Hwy</t>
+  </si>
+  <si>
+    <t>Hartwell</t>
+  </si>
+  <si>
+    <t>765 S Tryon st</t>
+  </si>
+  <si>
+    <t>Spartanburg</t>
+  </si>
+  <si>
+    <t>890 West 4th St</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>890 Lincoln Way</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>890 SE 10th St</t>
+  </si>
+  <si>
+    <t>North Bend</t>
+  </si>
+  <si>
+    <r>
+      <t>890</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 51st </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>St</t>
+    </r>
+  </si>
+  <si>
+    <t>Port Townsend</t>
+  </si>
+  <si>
+    <t>890 E Tietan Street</t>
+  </si>
+  <si>
+    <t>Walla Walla</t>
+  </si>
+  <si>
+    <t>890 S 1st St</t>
+  </si>
+  <si>
+    <t>Sunnyside</t>
+  </si>
+  <si>
+    <t>890 Main St</t>
+  </si>
+  <si>
+    <t>Park City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>890 E Fort Pierce Dr</t>
+  </si>
+  <si>
+    <t>St George</t>
+  </si>
+  <si>
+    <t>890 N Long St</t>
+  </si>
+  <si>
+    <t>Green River</t>
+  </si>
+  <si>
+    <t>890 N Main St</t>
+  </si>
+  <si>
+    <t>Bountiful</t>
+  </si>
+  <si>
+    <t>890 S 725 W St</t>
+  </si>
+  <si>
+    <t>Orem</t>
+  </si>
+  <si>
+    <t>890 Noble Champions Way</t>
+  </si>
+  <si>
+    <t>Bartonville</t>
+  </si>
+  <si>
+    <t>302 N B St</t>
+  </si>
+  <si>
+    <t>New Bern</t>
+  </si>
+  <si>
+    <t>8205 Moon Beam St</t>
+  </si>
+  <si>
+    <t>8017 Moon Beam St</t>
+  </si>
+  <si>
+    <t>307 Beam Blvd</t>
+  </si>
+  <si>
+    <r>
+      <t>San</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Antonio</t>
+    </r>
+  </si>
+  <si>
+    <t>1116 S. Wells Street</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>7612 W Highway 71</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>2815 E Hwy 71</t>
+  </si>
+  <si>
+    <t>Del Valle</t>
+  </si>
+  <si>
+    <t>567 North Ave</t>
+  </si>
+  <si>
+    <t>Battle Creek</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>567 N Campus Ave</t>
+  </si>
+  <si>
+    <t>Upland</t>
+  </si>
+  <si>
+    <t>567 North Tustin Avenue</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>567 Setting Sun Dr</t>
+  </si>
+  <si>
+    <t>Winter Garden</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>567 Sunridge Woods Blvd</t>
+  </si>
+  <si>
+    <t>Davenport</t>
+  </si>
+  <si>
+    <t>567 S Volusia Ave</t>
+  </si>
+  <si>
+    <t>Pierson</t>
+  </si>
+  <si>
+    <t>567 99th Ave N</t>
+  </si>
+  <si>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>567 NE 125TH ST</t>
+  </si>
+  <si>
+    <t>North Miami</t>
+  </si>
+  <si>
+    <t>3001 SE Lake Weir Avenue</t>
+  </si>
+  <si>
+    <t>Ocala</t>
+  </si>
+  <si>
+    <t>501 4th Ave SE</t>
+  </si>
+  <si>
+    <t>Ruskin</t>
+  </si>
+  <si>
+    <t>567 Lake OF The Woods Dr</t>
+  </si>
+  <si>
+    <t>VENICE</t>
+  </si>
+  <si>
+    <t>567 SW Cumorah Hill St</t>
+  </si>
+  <si>
+    <t>Fort White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +1293,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF70757A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +1335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,17 +1358,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,18 +1725,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B361A8-3790-9F48-971A-A7F55ABD680F}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
@@ -491,29 +1751,29 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -521,28 +1781,28 @@
         <v>1103093</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="3">
         <v>14433</v>
@@ -552,648 +1812,2533 @@
       <c r="A3" s="2">
         <v>1230395</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="2">
+        <v>38117</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2981234</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="2">
+        <v>37188</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3767123</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="9">
+        <v>98388</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4523435</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28277</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3523455</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="2">
+        <v>30022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3423455</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="2">
+        <v>49643</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>3234343</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="2">
+        <v>37918</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4633567</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2">
+        <v>28202</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5685734</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2">
+        <v>90210</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>4563456</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2">
+        <v>78045</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>5845673</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2">
+        <v>90210</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2345345</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="2">
+        <v>28204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>4234645</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11">
+        <v>11215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>4573534</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11370</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3452547</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11209</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>4757246</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3465643</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2">
+        <v>92660</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4566345</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2">
+        <v>77034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2456246</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="2">
+        <v>29451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>51103093</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="2">
+        <v>72560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>51230395</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J23" s="10">
+        <v>29572</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>52981234</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2">
+        <v>90405</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>53767123</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2">
+        <v>27520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>54523435</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J26" s="10">
+        <v>63144</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>53523455</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2">
+        <v>14051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>53423455</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="2">
+        <v>37204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>53234343</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J29" s="2">
+        <v>97497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>54633567</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>55685734</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J31" s="2">
+        <v>39773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>54563456</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="10">
+        <v>28144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>55845673</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" s="2">
+        <v>85020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>52345345</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="2">
+        <v>95030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>54234645</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="2">
+        <v>14223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>54573534</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="2">
+        <v>29715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>53452547</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="2">
+        <v>94402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>54757246</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="2">
+        <v>11763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>53465643</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2">
+        <v>14617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>54566345</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="2">
+        <v>30643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>52456246</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="2">
+        <v>28202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>91103093</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" s="2">
+        <v>29301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>91230395</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>92981234</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J44" s="2">
+        <v>95603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>93767123</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="2">
+        <v>98045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>94523435</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="10">
+        <v>98368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>93523455</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="2">
+        <v>99362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>93423455</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="2">
+        <v>98944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>93234343</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" s="2">
+        <v>84060</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>94633567</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J50" s="2">
+        <v>84790</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>95685734</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" s="2">
+        <v>84525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>94563456</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="2">
+        <v>98388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>95845673</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="2">
+        <v>84010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>92345345</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J54" s="2">
+        <v>84058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>94234645</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="2">
+        <v>78045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>94573534</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" s="10">
+        <v>76226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>93452547</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="2">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>94757246</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="2">
+        <v>77088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>93465643</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" s="2">
+        <v>77088</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>94566345</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="2">
+        <v>78221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>92456246</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="2">
+        <v>77957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>11103093</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="2">
+        <v>78735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>11230395</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="2">
+        <v>78716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>12981234</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J64" s="2">
+        <v>49037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>13767123</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J65" s="2">
+        <v>30308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>34523435</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="2">
+        <v>91786</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>23523455</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="2">
+        <v>92705</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>23423455</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" s="2">
+        <v>34787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>23234343</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J69" s="2">
+        <v>33837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>54633567</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J70" s="2">
+        <v>32180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45685734</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J71" s="2">
+        <v>34108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>24563456</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="2">
+        <v>28202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45845673</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J73" s="2">
+        <v>33161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>22345345</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J74" s="2">
+        <v>34471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>34234645</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J75" s="2">
+        <v>33570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>34573534</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="2">
+        <v>78045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>13452547</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J77" s="2">
+        <v>34293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>34757246</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J78" s="2">
+        <v>32038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>13465643</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="9">
+        <v>98388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>34566345</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="2">
+        <v>77034</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>22456246</v>
       </c>
+      <c r="B81" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="2">
+        <v>94402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C83" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
